--- a/mappingCorps/ig/observations-summary.xlsx
+++ b/mappingCorps/ig/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="79">
   <si>
     <t>Profile</t>
   </si>
@@ -140,6 +140,15 @@
     <t>TerminologieCISIS - Terminologie des concepts non trouvés dans les autres terminologies#MED-309</t>
   </si>
   <si>
+    <t>fr-observation-multiresistant-microorganism-document</t>
+  </si>
+  <si>
+    <t>Observation - FR Observation Multiresistant Microorganisms Identification Document</t>
+  </si>
+  <si>
+    <t>TerminologieCISIS - Terminologie des concepts non trouvés dans les autres terminologies#MED-144</t>
+  </si>
+  <si>
     <t>fr-observation-pain-score-document</t>
   </si>
   <si>
@@ -159,6 +168,9 @@
   </si>
   <si>
     <t>null#118185001</t>
+  </si>
+  <si>
+    <t>Periodĵ</t>
   </si>
   <si>
     <t>fr-observation-radiation-exposure-document</t>
@@ -370,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -673,13 +685,13 @@
         <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -693,19 +705,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>26</v>
@@ -714,7 +726,7 @@
         <v>27</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -743,13 +755,13 @@
         <v>51</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -763,28 +775,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -798,28 +810,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="C13" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>21</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>17</v>
@@ -833,13 +845,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>13</v>
@@ -848,13 +860,13 @@
         <v>13</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>17</v>
@@ -871,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -889,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -903,7 +915,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>62</v>
@@ -915,16 +927,16 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -938,28 +950,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -979,13 +991,13 @@
         <v>69</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>71</v>
@@ -994,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1014,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>13</v>
@@ -1023,21 +1035,56 @@
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H20" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s" s="2">
+      <c r="I20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>13</v>
       </c>
     </row>
